--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-03_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-03_end.xlsx
@@ -124,7 +124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Member"]   —Who’s there?!
+    <t xml:space="preserve">[name="Reunion Member"]   —Who's there?!
 </t>
   </si>
   <si>
@@ -156,7 +156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]   …Can’t hope to stop us!
+    <t xml:space="preserve">[name="Nearl"]   ...Can't hope to stop us!
 </t>
   </si>
   <si>
